--- a/biology/Botanique/Aeonium_haworthii/Aeonium_haworthii.xlsx
+++ b/biology/Botanique/Aeonium_haworthii/Aeonium_haworthii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeonium haworthii, l'aéonium de Haworth, est une plante succulente de la famille des Crassulaceae, originaire des îles Canaries.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie et nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre aeonium a été créé par les botanistes Barker Webb et Berthelot à partir d'un phytonyme grec aizōon αειζωον désignant[1] la Joubarbe arborescente (Sempervivum arboreum) chez Dioscoride (MM. 4, 88) ou Pline (HN. 25, 160 ; 26, 137 etc.) ou la Joubarbe des toits (Sempervivum tectorum) chez Dioscoride (4, 89) ou Pline (18, 159 ; 25, 160 etc.). Ce terme grec dérive lui-même d'un terme signifiant « vivace, toujours en vie » qui qualifiait ce genre de plante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre aeonium a été créé par les botanistes Barker Webb et Berthelot à partir d'un phytonyme grec aizōon αειζωον désignant la Joubarbe arborescente (Sempervivum arboreum) chez Dioscoride (MM. 4, 88) ou Pline (HN. 25, 160 ; 26, 137 etc.) ou la Joubarbe des toits (Sempervivum tectorum) chez Dioscoride (4, 89) ou Pline (18, 159 ; 25, 160 etc.). Ce terme grec dérive lui-même d'un terme signifiant « vivace, toujours en vie » qui qualifiait ce genre de plante.
 L'épithète spécifique haworthia renvoie au botaniste britannique Haworth qui fut un grand collectionneur de plantes succulentes.
-Aeonium haworthii a été décrite par les botanistes anglais Webb et français Berthelelot, qui ensemble ont exploré et décrit la flore des Canaries dans Histoire naturelle des Iles Canaries[2] tome 3, (1841).
+Aeonium haworthii a été décrite par les botanistes anglais Webb et français Berthelelot, qui ensemble ont exploré et décrit la flore des Canaries dans Histoire naturelle des Iles Canaries tome 3, (1841).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeonium haworthii est un arbrisseau branchu de 70 cm de haut[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeonium haworthii est un arbrisseau branchu de 70 cm de haut.
 Les feuilles sont disposées en rosette concave à l'extrémité des rameaux. Chaque rosette comporte de 15 à 25 feuilles et forme une soucoupe de 10 cm de diamètre. La feuille est d'un vert grisâtre, souvent avec un liseré rouge sur la marge, épaisse, de forme obovale, de 3 à 6 cm de long, avec la marge ciliée, mais la surface du limbe glabre.
 Les inflorescences terminales sont des cymes lâches, à sommet plat, de 5 à 15 cm de haut. La fleur de 1 cm de diamètre, comporte un calice glabre, une corolle de 7 à 9 pétales d'un blanc crémeux lavé de lignes rougeâtres, le double d'étamines.
 En France métropolitaine, il fleurit en juillet.
@@ -579,9 +595,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeonium haworthii est originaire des Canaries[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeonium haworthii est originaire des Canaries.
 Il croît sur les falaises orientées vers le nord.
 Il a été introduit en Californie où il s'est localement naturalisé.
 </t>
@@ -612,7 +630,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeonium haworthii est sensible aux gelées (à partir de −2 °C).
 Il peut être cultivé dans les jardins de rocailles, dans les régions chaudes où il ne gèle pas, sinon il faut le rentrer l'hiver dans des serres ou appartements lumineux.
